--- a/terminal-api/testspec/xxx_network_testspec.xlsx
+++ b/terminal-api/testspec/xxx_network_testspec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MediaRoot\src\kyoshizawa\kywiki\terminal-api\testspec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC3630D-01BA-42F5-A88C-7AC3B52997A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F81CA67-4D51-4315-96F7-FB9F7096BBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,7 +658,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
